--- a/Code/Results/Cases/Case_3_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54277855000761</v>
+        <v>10.10307692575655</v>
       </c>
       <c r="C2">
-        <v>7.430296797555054</v>
+        <v>5.151993711956876</v>
       </c>
       <c r="D2">
-        <v>4.932849392927121</v>
+        <v>5.147891576704202</v>
       </c>
       <c r="F2">
-        <v>18.80936304201115</v>
+        <v>25.09119925919433</v>
       </c>
       <c r="G2">
-        <v>23.96199769038965</v>
+        <v>30.1711895776443</v>
       </c>
       <c r="H2">
-        <v>9.176677123154414</v>
+        <v>14.65396606777406</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.95102853401055</v>
+        <v>9.369257434488967</v>
       </c>
       <c r="N2">
-        <v>12.04950881167361</v>
+        <v>18.33889919955067</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63464634501483</v>
+        <v>9.812698197809322</v>
       </c>
       <c r="C3">
-        <v>7.038159501940706</v>
+        <v>4.96756604230582</v>
       </c>
       <c r="D3">
-        <v>4.795263709610215</v>
+        <v>5.09801534488316</v>
       </c>
       <c r="F3">
-        <v>18.4989091140013</v>
+        <v>25.12893409318625</v>
       </c>
       <c r="G3">
-        <v>23.58292570289958</v>
+        <v>30.22992343136858</v>
       </c>
       <c r="H3">
-        <v>9.236775603144816</v>
+        <v>14.70528275575838</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.22441603820878</v>
+        <v>9.169505074180462</v>
       </c>
       <c r="N3">
-        <v>12.26423845675547</v>
+        <v>18.4028397228933</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.04461664001329</v>
+        <v>9.632093093568139</v>
       </c>
       <c r="C4">
-        <v>6.786009488050405</v>
+        <v>4.849788048596083</v>
       </c>
       <c r="D4">
-        <v>4.708303638146856</v>
+        <v>5.066731892646813</v>
       </c>
       <c r="F4">
-        <v>18.32604938764559</v>
+        <v>25.15941859950749</v>
       </c>
       <c r="G4">
-        <v>23.38011882418139</v>
+        <v>30.27681471336745</v>
       </c>
       <c r="H4">
-        <v>9.280531379897008</v>
+        <v>14.73941411304405</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.75420391816791</v>
+        <v>9.046444376708598</v>
       </c>
       <c r="N4">
-        <v>12.39901617803267</v>
+        <v>18.44394520793975</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.79597210306071</v>
+        <v>9.558034408034462</v>
       </c>
       <c r="C5">
-        <v>6.680443567528394</v>
+        <v>4.800694453215465</v>
       </c>
       <c r="D5">
-        <v>4.672273576301028</v>
+        <v>5.053823779648715</v>
       </c>
       <c r="F5">
-        <v>18.26002639841237</v>
+        <v>25.17367574428619</v>
       </c>
       <c r="G5">
-        <v>23.30484175664458</v>
+        <v>30.29863356960462</v>
       </c>
       <c r="H5">
-        <v>9.300015274822798</v>
+        <v>14.75398184750855</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.55655468903963</v>
+        <v>8.996265643730158</v>
       </c>
       <c r="N5">
-        <v>12.45470064639519</v>
+        <v>18.46116154314598</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75418810965263</v>
+        <v>9.545712861514836</v>
       </c>
       <c r="C6">
-        <v>6.6627461906459</v>
+        <v>4.792477537339683</v>
       </c>
       <c r="D6">
-        <v>4.666255945233575</v>
+        <v>5.051670917260963</v>
       </c>
       <c r="F6">
-        <v>18.24932848874173</v>
+        <v>25.17615376617897</v>
       </c>
       <c r="G6">
-        <v>23.29278170116935</v>
+        <v>30.30241986928994</v>
       </c>
       <c r="H6">
-        <v>9.303348388749328</v>
+        <v>14.75644058973272</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.52337154651364</v>
+        <v>8.987933835521106</v>
       </c>
       <c r="N6">
-        <v>12.46399368076801</v>
+        <v>18.46404845939727</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.04129660612072</v>
+        <v>9.631096012768431</v>
       </c>
       <c r="C7">
-        <v>6.784597105428857</v>
+        <v>4.849130340633171</v>
       </c>
       <c r="D7">
-        <v>4.707820082837418</v>
+        <v>5.06655844868402</v>
       </c>
       <c r="F7">
-        <v>18.3251411624009</v>
+        <v>25.15960345595073</v>
       </c>
       <c r="G7">
-        <v>23.37907401548225</v>
+        <v>30.27709801412556</v>
       </c>
       <c r="H7">
-        <v>9.280787544669172</v>
+        <v>14.73960791139093</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.7515627490829</v>
+        <v>9.045767674240397</v>
       </c>
       <c r="N7">
-        <v>12.39976404419593</v>
+        <v>18.44417550676269</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.236356941227</v>
+        <v>10.00350415313733</v>
       </c>
       <c r="C8">
-        <v>7.297473928551295</v>
+        <v>5.089369410772997</v>
       </c>
       <c r="D8">
-        <v>4.885942724097969</v>
+        <v>5.130834598762464</v>
       </c>
       <c r="F8">
-        <v>18.69860928484594</v>
+        <v>25.10268922058361</v>
       </c>
       <c r="G8">
-        <v>23.82499208765956</v>
+        <v>30.18918643453483</v>
       </c>
       <c r="H8">
-        <v>9.195932903669537</v>
+        <v>14.67111537865537</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.7054951534801</v>
+        <v>9.300511514425315</v>
       </c>
       <c r="N8">
-        <v>12.1229536665186</v>
+        <v>18.36056364702427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.32476253795512</v>
+        <v>10.71053874715185</v>
       </c>
       <c r="C9">
-        <v>8.211454593218042</v>
+        <v>5.522816474525658</v>
       </c>
       <c r="D9">
-        <v>5.214324912075514</v>
+        <v>5.25139541573009</v>
       </c>
       <c r="F9">
-        <v>19.57318607159493</v>
+        <v>25.04930863366779</v>
       </c>
       <c r="G9">
-        <v>24.94250529350471</v>
+        <v>30.10320341335735</v>
       </c>
       <c r="H9">
-        <v>9.087235746592389</v>
+        <v>14.55763709629901</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.3850037892456</v>
+        <v>9.793700338548565</v>
       </c>
       <c r="N9">
-        <v>11.60225259158114</v>
+        <v>18.21118183484489</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.70684074292606</v>
+        <v>11.2097998150899</v>
       </c>
       <c r="C10">
-        <v>8.825719039753034</v>
+        <v>5.816421451273119</v>
       </c>
       <c r="D10">
-        <v>5.44139016236787</v>
+        <v>5.336297910173432</v>
       </c>
       <c r="F10">
-        <v>20.30322520915055</v>
+        <v>25.04578411095564</v>
       </c>
       <c r="G10">
-        <v>25.91693746014733</v>
+        <v>30.09327420995589</v>
       </c>
       <c r="H10">
-        <v>9.047304535959654</v>
+        <v>14.48700093408351</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.5029327494815</v>
+        <v>10.14822308848534</v>
       </c>
       <c r="N10">
-        <v>11.23148276604902</v>
+        <v>18.1102283300843</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.3032601307462</v>
+        <v>11.43143356857704</v>
       </c>
       <c r="C11">
-        <v>9.09263405895552</v>
+        <v>5.94427622019639</v>
       </c>
       <c r="D11">
-        <v>5.541351495502336</v>
+        <v>5.374057085975517</v>
       </c>
       <c r="F11">
-        <v>20.65427983112521</v>
+        <v>25.05195309360001</v>
       </c>
       <c r="G11">
-        <v>26.39408903159012</v>
+        <v>30.10040152204246</v>
       </c>
       <c r="H11">
-        <v>9.038891219584448</v>
+        <v>14.45763971456199</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.98659965996199</v>
+        <v>10.30703776742434</v>
       </c>
       <c r="N11">
-        <v>11.06497009210675</v>
+        <v>18.06619269413815</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52452727189422</v>
+        <v>11.51449097793867</v>
       </c>
       <c r="C12">
-        <v>9.191907964983951</v>
+        <v>5.991848812610431</v>
       </c>
       <c r="D12">
-        <v>5.578707150125106</v>
+        <v>5.388225814229146</v>
       </c>
       <c r="F12">
-        <v>20.78992488925981</v>
+        <v>25.05540678247172</v>
       </c>
       <c r="G12">
-        <v>26.57965967371728</v>
+        <v>30.10477859362572</v>
       </c>
       <c r="H12">
-        <v>9.037200673358766</v>
+        <v>14.44692057646863</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.16620404321696</v>
+        <v>10.36676411305873</v>
       </c>
       <c r="N12">
-        <v>11.00219063269947</v>
+        <v>18.04978768292856</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.47707632234679</v>
+        <v>11.49664301617284</v>
       </c>
       <c r="C13">
-        <v>9.170607607446723</v>
+        <v>5.981641031630194</v>
       </c>
       <c r="D13">
-        <v>5.570684337996868</v>
+        <v>5.385180189289267</v>
       </c>
       <c r="F13">
-        <v>20.76059115517905</v>
+        <v>25.05461327370021</v>
       </c>
       <c r="G13">
-        <v>26.53947645951005</v>
+        <v>30.10376124070413</v>
       </c>
       <c r="H13">
-        <v>9.0374967424604</v>
+        <v>14.44921136255248</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.12768038578097</v>
+        <v>10.35392026638</v>
       </c>
       <c r="N13">
-        <v>11.01569963854599</v>
+        <v>18.05330879250693</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.32155542753761</v>
+        <v>11.43828463928342</v>
       </c>
       <c r="C14">
-        <v>9.100837462928972</v>
+        <v>5.948207063359444</v>
       </c>
       <c r="D14">
-        <v>5.544434836223793</v>
+        <v>5.375225390266049</v>
       </c>
       <c r="F14">
-        <v>20.66538526411812</v>
+        <v>25.05221483565164</v>
       </c>
       <c r="G14">
-        <v>26.4092581418569</v>
+        <v>30.10072798035799</v>
       </c>
       <c r="H14">
-        <v>9.038721624143498</v>
+        <v>14.4567498372577</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.00144677899591</v>
+        <v>10.31196010111363</v>
       </c>
       <c r="N14">
-        <v>11.05979987526511</v>
+        <v>18.06483763334233</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.22569925033908</v>
+        <v>11.40242278571958</v>
       </c>
       <c r="C15">
-        <v>9.057866759587801</v>
+        <v>5.92761736466289</v>
       </c>
       <c r="D15">
-        <v>5.528290958101199</v>
+        <v>5.369110711504998</v>
       </c>
       <c r="F15">
-        <v>20.60742103449952</v>
+        <v>25.05089125243379</v>
       </c>
       <c r="G15">
-        <v>26.3301317894449</v>
+        <v>30.09908863650664</v>
       </c>
       <c r="H15">
-        <v>9.039669455308376</v>
+        <v>14.461419396677</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.92366371239765</v>
+        <v>10.28620275811633</v>
       </c>
       <c r="N15">
-        <v>11.08684733893152</v>
+        <v>18.07193454900462</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.66721855090558</v>
+        <v>11.1951980034812</v>
       </c>
       <c r="C16">
-        <v>8.808023408972513</v>
+        <v>5.807948994982965</v>
       </c>
       <c r="D16">
-        <v>5.434788781230272</v>
+        <v>5.333812394891606</v>
       </c>
       <c r="F16">
-        <v>20.28066298490207</v>
+        <v>25.04553737501628</v>
       </c>
       <c r="G16">
-        <v>25.88643755706129</v>
+        <v>30.09304309489207</v>
       </c>
       <c r="H16">
-        <v>9.048058489811076</v>
+        <v>14.48897559552992</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.47082554722287</v>
+        <v>10.13778949487047</v>
       </c>
       <c r="N16">
-        <v>11.24240519585276</v>
+        <v>18.11314405894678</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.3163791469715</v>
+        <v>11.06660711983389</v>
       </c>
       <c r="C17">
-        <v>8.651543970154568</v>
+        <v>5.733057451632559</v>
       </c>
       <c r="D17">
-        <v>5.376561012572761</v>
+        <v>5.311932781295462</v>
       </c>
       <c r="F17">
-        <v>20.08505132102993</v>
+        <v>25.04424394587521</v>
       </c>
       <c r="G17">
-        <v>25.62293585851953</v>
+        <v>30.09231995746103</v>
       </c>
       <c r="H17">
-        <v>9.055767873869094</v>
+        <v>14.50659083956773</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.18666891273987</v>
+        <v>10.04606913576675</v>
       </c>
       <c r="N17">
-        <v>11.33836250622875</v>
+        <v>18.13890758416957</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.11154210848626</v>
+        <v>10.99213338330514</v>
       </c>
       <c r="C18">
-        <v>8.560362632874002</v>
+        <v>5.689445719862412</v>
       </c>
       <c r="D18">
-        <v>5.342757284549191</v>
+        <v>5.299267270404084</v>
       </c>
       <c r="F18">
-        <v>19.97432630881547</v>
+        <v>25.04423163474375</v>
       </c>
       <c r="G18">
-        <v>25.47456580039096</v>
+        <v>30.09299993433051</v>
       </c>
       <c r="H18">
-        <v>9.061114221288788</v>
+        <v>14.51698348496348</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.02088517189862</v>
+        <v>9.993085831856401</v>
       </c>
       <c r="N18">
-        <v>11.39375938137845</v>
+        <v>18.15390392238431</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.04166329618166</v>
+        <v>10.9668326104199</v>
       </c>
       <c r="C19">
-        <v>8.529287923866937</v>
+        <v>5.674588199204317</v>
       </c>
       <c r="D19">
-        <v>5.331258824275555</v>
+        <v>5.294965221420044</v>
       </c>
       <c r="F19">
-        <v>19.93714388464412</v>
+        <v>25.04435310844918</v>
       </c>
       <c r="G19">
-        <v>25.42487737125822</v>
+        <v>30.09341824074187</v>
       </c>
       <c r="H19">
-        <v>9.063078267479035</v>
+        <v>14.520547028964</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.96435022570695</v>
+        <v>9.975109287741608</v>
       </c>
       <c r="N19">
-        <v>11.41255198815046</v>
+        <v>18.15901200739289</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.35404116350626</v>
+        <v>11.08034941399503</v>
       </c>
       <c r="C20">
-        <v>8.668323471328716</v>
+        <v>5.741085441195341</v>
       </c>
       <c r="D20">
-        <v>5.38279195753729</v>
+        <v>5.314270321836755</v>
       </c>
       <c r="F20">
-        <v>20.10568982638407</v>
+        <v>25.04430590883477</v>
       </c>
       <c r="G20">
-        <v>25.65065586569929</v>
+        <v>30.09228348136837</v>
       </c>
       <c r="H20">
-        <v>9.054852130791016</v>
+        <v>14.50468866691662</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.21716031545402</v>
+        <v>10.05585698491777</v>
       </c>
       <c r="N20">
-        <v>11.3281267350023</v>
+        <v>18.13614661626411</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.36735959973382</v>
+        <v>11.45545014856644</v>
       </c>
       <c r="C21">
-        <v>9.121379503634719</v>
+        <v>5.958050479126468</v>
       </c>
       <c r="D21">
-        <v>5.552158589345999</v>
+        <v>5.378152924799898</v>
       </c>
       <c r="F21">
-        <v>20.69327619385506</v>
+        <v>25.0528889884088</v>
       </c>
       <c r="G21">
-        <v>26.44737384631809</v>
+        <v>30.10157335933006</v>
       </c>
       <c r="H21">
-        <v>9.038320506243421</v>
+        <v>14.45452476095502</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.03862073239565</v>
+        <v>10.32429649211457</v>
       </c>
       <c r="N21">
-        <v>11.04683937970055</v>
+        <v>18.06144400661459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.00293281457764</v>
+        <v>11.69549379506296</v>
       </c>
       <c r="C22">
-        <v>9.406983726384688</v>
+        <v>6.094926371056935</v>
       </c>
       <c r="D22">
-        <v>5.659942551499453</v>
+        <v>5.41914449401164</v>
       </c>
       <c r="F22">
-        <v>21.09307445896573</v>
+        <v>25.06501215215657</v>
       </c>
       <c r="G22">
-        <v>26.99653847399237</v>
+        <v>30.11742646337605</v>
       </c>
       <c r="H22">
-        <v>9.036277559159879</v>
+        <v>14.42406763782387</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.55481907964792</v>
+        <v>10.49730318054122</v>
       </c>
       <c r="N22">
-        <v>10.86458883598932</v>
+        <v>18.01419664085056</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.66613695711305</v>
+        <v>11.56787029279072</v>
       </c>
       <c r="C23">
-        <v>9.255510416221204</v>
+        <v>6.022330249603573</v>
       </c>
       <c r="D23">
-        <v>5.602687694402766</v>
+        <v>5.397337847712545</v>
       </c>
       <c r="F23">
-        <v>20.87825740740144</v>
+        <v>25.05794607972517</v>
       </c>
       <c r="G23">
-        <v>26.70083375590913</v>
+        <v>30.10806963738905</v>
       </c>
       <c r="H23">
-        <v>9.036534772916717</v>
+        <v>14.44010992082629</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.28119499697936</v>
+        <v>10.40520765210402</v>
       </c>
       <c r="N23">
-        <v>10.9617260703348</v>
+        <v>18.03926973750997</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.33702393451943</v>
+        <v>11.07413821441554</v>
       </c>
       <c r="C24">
-        <v>8.660741256304819</v>
+        <v>5.737457715936596</v>
       </c>
       <c r="D24">
-        <v>5.379975966944619</v>
+        <v>5.313213789151492</v>
       </c>
       <c r="F24">
-        <v>20.09635375345755</v>
+        <v>25.04427561743825</v>
       </c>
       <c r="G24">
-        <v>25.63811393157596</v>
+        <v>30.09229655941288</v>
       </c>
       <c r="H24">
-        <v>9.055263297977884</v>
+        <v>14.50554781248985</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.2033826868694</v>
+        <v>10.05143267880082</v>
       </c>
       <c r="N24">
-        <v>11.33275360902542</v>
+        <v>18.13739427489712</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.78677692355354</v>
+        <v>10.52241050156984</v>
       </c>
       <c r="C25">
-        <v>7.974190565524478</v>
+        <v>5.409800800963635</v>
       </c>
       <c r="D25">
-        <v>5.127887420217196</v>
+        <v>5.219402208076817</v>
       </c>
       <c r="F25">
-        <v>19.32123406446826</v>
+        <v>25.05749158450314</v>
       </c>
       <c r="G25">
-        <v>24.61351244277145</v>
+        <v>30.11714798128327</v>
       </c>
       <c r="H25">
-        <v>9.109984924853345</v>
+        <v>14.58610183418904</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.95109504683144</v>
+        <v>9.661380635107554</v>
       </c>
       <c r="N25">
-        <v>11.74091707976806</v>
+        <v>18.2500421043622</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_196/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_196/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.10307692575655</v>
+        <v>13.54277855000761</v>
       </c>
       <c r="C2">
-        <v>5.151993711956876</v>
+        <v>7.430296797555068</v>
       </c>
       <c r="D2">
-        <v>5.147891576704202</v>
+        <v>4.932849392927105</v>
       </c>
       <c r="F2">
-        <v>25.09119925919433</v>
+        <v>18.80936304201104</v>
       </c>
       <c r="G2">
-        <v>30.1711895776443</v>
+        <v>23.96199769038942</v>
       </c>
       <c r="H2">
-        <v>14.65396606777406</v>
+        <v>9.176677123154409</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.369257434488967</v>
+        <v>11.95102853401053</v>
       </c>
       <c r="N2">
-        <v>18.33889919955067</v>
+        <v>12.04950881167351</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.812698197809322</v>
+        <v>12.63464634501483</v>
       </c>
       <c r="C3">
-        <v>4.96756604230582</v>
+        <v>7.03815950194072</v>
       </c>
       <c r="D3">
-        <v>5.09801534488316</v>
+        <v>4.795263709610108</v>
       </c>
       <c r="F3">
-        <v>25.12893409318625</v>
+        <v>18.49890911400123</v>
       </c>
       <c r="G3">
-        <v>30.22992343136858</v>
+        <v>23.58292570289936</v>
       </c>
       <c r="H3">
-        <v>14.70528275575838</v>
+        <v>9.236775603144762</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.169505074180462</v>
+        <v>11.22441603820881</v>
       </c>
       <c r="N3">
-        <v>18.4028397228933</v>
+        <v>12.2642384567554</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.632093093568139</v>
+        <v>12.04461664001325</v>
       </c>
       <c r="C4">
-        <v>4.849788048596083</v>
+        <v>6.786009488050569</v>
       </c>
       <c r="D4">
-        <v>5.066731892646813</v>
+        <v>4.708303638146959</v>
       </c>
       <c r="F4">
-        <v>25.15941859950749</v>
+        <v>18.32604938764556</v>
       </c>
       <c r="G4">
-        <v>30.27681471336745</v>
+        <v>23.38011882418142</v>
       </c>
       <c r="H4">
-        <v>14.73941411304405</v>
+        <v>9.280531379897008</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.046444376708598</v>
+        <v>10.75420391816792</v>
       </c>
       <c r="N4">
-        <v>18.44394520793975</v>
+        <v>12.39901617803271</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.558034408034462</v>
+        <v>11.79597210306062</v>
       </c>
       <c r="C5">
-        <v>4.800694453215465</v>
+        <v>6.680443567528477</v>
       </c>
       <c r="D5">
-        <v>5.053823779648715</v>
+        <v>4.672273576301072</v>
       </c>
       <c r="F5">
-        <v>25.17367574428619</v>
+        <v>18.26002639841261</v>
       </c>
       <c r="G5">
-        <v>30.29863356960462</v>
+        <v>23.30484175664495</v>
       </c>
       <c r="H5">
-        <v>14.75398184750855</v>
+        <v>9.300015274823025</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.996265643730158</v>
+        <v>10.55655468903955</v>
       </c>
       <c r="N5">
-        <v>18.46116154314598</v>
+        <v>12.45470064639529</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.545712861514836</v>
+        <v>11.75418810965258</v>
       </c>
       <c r="C6">
-        <v>4.792477537339683</v>
+        <v>6.662746190645896</v>
       </c>
       <c r="D6">
-        <v>5.051670917260963</v>
+        <v>4.666255945233581</v>
       </c>
       <c r="F6">
-        <v>25.17615376617897</v>
+        <v>18.24932848874163</v>
       </c>
       <c r="G6">
-        <v>30.30241986928994</v>
+        <v>23.29278170116928</v>
       </c>
       <c r="H6">
-        <v>14.75644058973272</v>
+        <v>9.303348388749217</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.987933835521106</v>
+        <v>10.5233715465136</v>
       </c>
       <c r="N6">
-        <v>18.46404845939727</v>
+        <v>12.4639936807679</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.631096012768431</v>
+        <v>12.04129660612072</v>
       </c>
       <c r="C7">
-        <v>4.849130340633171</v>
+        <v>6.784597105428788</v>
       </c>
       <c r="D7">
-        <v>5.06655844868402</v>
+        <v>4.707820082837413</v>
       </c>
       <c r="F7">
-        <v>25.15960345595073</v>
+        <v>18.32514116240108</v>
       </c>
       <c r="G7">
-        <v>30.27709801412556</v>
+        <v>23.37907401548253</v>
       </c>
       <c r="H7">
-        <v>14.73960791139093</v>
+        <v>9.28078754466924</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.045767674240397</v>
+        <v>10.75156274908286</v>
       </c>
       <c r="N7">
-        <v>18.44417550676269</v>
+        <v>12.39976404419607</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.00350415313733</v>
+        <v>13.23635694122707</v>
       </c>
       <c r="C8">
-        <v>5.089369410772997</v>
+        <v>7.297473928551399</v>
       </c>
       <c r="D8">
-        <v>5.130834598762464</v>
+        <v>4.885942724097965</v>
       </c>
       <c r="F8">
-        <v>25.10268922058361</v>
+        <v>18.6986092848458</v>
       </c>
       <c r="G8">
-        <v>30.18918643453483</v>
+        <v>23.82499208765937</v>
       </c>
       <c r="H8">
-        <v>14.67111537865537</v>
+        <v>9.195932903669368</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.300511514425315</v>
+        <v>11.70549515348015</v>
       </c>
       <c r="N8">
-        <v>18.36056364702427</v>
+        <v>12.1229536665185</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.71053874715185</v>
+        <v>15.32476253795512</v>
       </c>
       <c r="C9">
-        <v>5.522816474525658</v>
+        <v>8.211454593217969</v>
       </c>
       <c r="D9">
-        <v>5.25139541573009</v>
+        <v>5.214324912075574</v>
       </c>
       <c r="F9">
-        <v>25.04930863366779</v>
+        <v>19.57318607159493</v>
       </c>
       <c r="G9">
-        <v>30.10320341335735</v>
+        <v>24.94250529350482</v>
       </c>
       <c r="H9">
-        <v>14.55763709629901</v>
+        <v>9.087235746592384</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.793700338548565</v>
+        <v>13.38500378924559</v>
       </c>
       <c r="N9">
-        <v>18.21118183484489</v>
+        <v>11.60225259158114</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.2097998150899</v>
+        <v>16.7068407429261</v>
       </c>
       <c r="C10">
-        <v>5.816421451273119</v>
+        <v>8.825719039753196</v>
       </c>
       <c r="D10">
-        <v>5.336297910173432</v>
+        <v>5.441390162367746</v>
       </c>
       <c r="F10">
-        <v>25.04578411095564</v>
+        <v>20.30322520915054</v>
       </c>
       <c r="G10">
-        <v>30.09327420995589</v>
+        <v>25.91693746014736</v>
       </c>
       <c r="H10">
-        <v>14.48700093408351</v>
+        <v>9.047304535959592</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14822308848534</v>
+        <v>14.50293274948157</v>
       </c>
       <c r="N10">
-        <v>18.1102283300843</v>
+        <v>11.23148276604895</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.43143356857704</v>
+        <v>17.30326013074617</v>
       </c>
       <c r="C11">
-        <v>5.94427622019639</v>
+        <v>9.092634058955664</v>
       </c>
       <c r="D11">
-        <v>5.374057085975517</v>
+        <v>5.541351495502371</v>
       </c>
       <c r="F11">
-        <v>25.05195309360001</v>
+        <v>20.65427983112511</v>
       </c>
       <c r="G11">
-        <v>30.10040152204246</v>
+        <v>26.39408903159002</v>
       </c>
       <c r="H11">
-        <v>14.45763971456199</v>
+        <v>9.038891219584389</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.30703776742434</v>
+        <v>14.98659965996201</v>
       </c>
       <c r="N11">
-        <v>18.06619269413815</v>
+        <v>11.06497009210669</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.51449097793867</v>
+        <v>17.5245272718943</v>
       </c>
       <c r="C12">
-        <v>5.991848812610431</v>
+        <v>9.191907964983892</v>
       </c>
       <c r="D12">
-        <v>5.388225814229146</v>
+        <v>5.578707150125157</v>
       </c>
       <c r="F12">
-        <v>25.05540678247172</v>
+        <v>20.78992488925969</v>
       </c>
       <c r="G12">
-        <v>30.10477859362572</v>
+        <v>26.57965967371713</v>
       </c>
       <c r="H12">
-        <v>14.44692057646863</v>
+        <v>9.03720067335872</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.36676411305873</v>
+        <v>15.16620404321702</v>
       </c>
       <c r="N12">
-        <v>18.04978768292856</v>
+        <v>11.00219063269937</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.49664301617284</v>
+        <v>17.47707632234674</v>
       </c>
       <c r="C13">
-        <v>5.981641031630194</v>
+        <v>9.170607607446779</v>
       </c>
       <c r="D13">
-        <v>5.385180189289267</v>
+        <v>5.570684337996965</v>
       </c>
       <c r="F13">
-        <v>25.05461327370021</v>
+        <v>20.76059115517902</v>
       </c>
       <c r="G13">
-        <v>30.10376124070413</v>
+        <v>26.53947645951008</v>
       </c>
       <c r="H13">
-        <v>14.44921136255248</v>
+        <v>9.037496742460437</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.35392026638</v>
+        <v>15.12768038578092</v>
       </c>
       <c r="N13">
-        <v>18.05330879250693</v>
+        <v>11.01569963854599</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.43828463928342</v>
+        <v>17.32155542753763</v>
       </c>
       <c r="C14">
-        <v>5.948207063359444</v>
+        <v>9.100837462928972</v>
       </c>
       <c r="D14">
-        <v>5.375225390266049</v>
+        <v>5.544434836223878</v>
       </c>
       <c r="F14">
-        <v>25.05221483565164</v>
+        <v>20.66538526411812</v>
       </c>
       <c r="G14">
-        <v>30.10072798035799</v>
+        <v>26.40925814185685</v>
       </c>
       <c r="H14">
-        <v>14.4567498372577</v>
+        <v>9.038721624143548</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.31196010111363</v>
+        <v>15.0014467789959</v>
       </c>
       <c r="N14">
-        <v>18.06483763334233</v>
+        <v>11.05979987526518</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.40242278571958</v>
+        <v>17.22569925033904</v>
       </c>
       <c r="C15">
-        <v>5.92761736466289</v>
+        <v>9.05786675958799</v>
       </c>
       <c r="D15">
-        <v>5.369110711504998</v>
+        <v>5.528290958101182</v>
       </c>
       <c r="F15">
-        <v>25.05089125243379</v>
+        <v>20.60742103449957</v>
       </c>
       <c r="G15">
-        <v>30.09908863650664</v>
+        <v>26.33013178944496</v>
       </c>
       <c r="H15">
-        <v>14.461419396677</v>
+        <v>9.039669455308429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.28620275811633</v>
+        <v>14.92366371239765</v>
       </c>
       <c r="N15">
-        <v>18.07193454900462</v>
+        <v>11.08684733893159</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.1951980034812</v>
+        <v>16.66721855090559</v>
       </c>
       <c r="C16">
-        <v>5.807948994982965</v>
+        <v>8.808023408972511</v>
       </c>
       <c r="D16">
-        <v>5.333812394891606</v>
+        <v>5.434788781230164</v>
       </c>
       <c r="F16">
-        <v>25.04553737501628</v>
+        <v>20.28066298490212</v>
       </c>
       <c r="G16">
-        <v>30.09304309489207</v>
+        <v>25.88643755706139</v>
       </c>
       <c r="H16">
-        <v>14.48897559552992</v>
+        <v>9.048058489811082</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13778949487047</v>
+        <v>14.47082554722291</v>
       </c>
       <c r="N16">
-        <v>18.11314405894678</v>
+        <v>11.24240519585283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.06660711983389</v>
+        <v>16.31637914697155</v>
       </c>
       <c r="C17">
-        <v>5.733057451632559</v>
+        <v>8.651543970154584</v>
       </c>
       <c r="D17">
-        <v>5.311932781295462</v>
+        <v>5.376561012572887</v>
       </c>
       <c r="F17">
-        <v>25.04424394587521</v>
+        <v>20.08505132102977</v>
       </c>
       <c r="G17">
-        <v>30.09231995746103</v>
+        <v>25.62293585851926</v>
       </c>
       <c r="H17">
-        <v>14.50659083956773</v>
+        <v>9.055767873869049</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.04606913576675</v>
+        <v>14.18666891273992</v>
       </c>
       <c r="N17">
-        <v>18.13890758416957</v>
+        <v>11.33836250622864</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.99213338330514</v>
+        <v>16.11154210848624</v>
       </c>
       <c r="C18">
-        <v>5.689445719862412</v>
+        <v>8.560362632874165</v>
       </c>
       <c r="D18">
-        <v>5.299267270404084</v>
+        <v>5.342757284549138</v>
       </c>
       <c r="F18">
-        <v>25.04423163474375</v>
+        <v>19.97432630881545</v>
       </c>
       <c r="G18">
-        <v>30.09299993433051</v>
+        <v>25.47456580039092</v>
       </c>
       <c r="H18">
-        <v>14.51698348496348</v>
+        <v>9.061114221288793</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.993085831856401</v>
+        <v>14.02088517189868</v>
       </c>
       <c r="N18">
-        <v>18.15390392238431</v>
+        <v>11.39375938137848</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.9668326104199</v>
+        <v>16.04166329618176</v>
       </c>
       <c r="C19">
-        <v>5.674588199204317</v>
+        <v>8.529287923866981</v>
       </c>
       <c r="D19">
-        <v>5.294965221420044</v>
+        <v>5.331258824275597</v>
       </c>
       <c r="F19">
-        <v>25.04435310844918</v>
+        <v>19.93714388464396</v>
       </c>
       <c r="G19">
-        <v>30.09341824074187</v>
+        <v>25.42487737125816</v>
       </c>
       <c r="H19">
-        <v>14.520547028964</v>
+        <v>9.063078267478941</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.975109287741608</v>
+        <v>13.96435022570703</v>
       </c>
       <c r="N19">
-        <v>18.15901200739289</v>
+        <v>11.41255198815043</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.08034941399503</v>
+        <v>16.35404116350624</v>
       </c>
       <c r="C20">
-        <v>5.741085441195341</v>
+        <v>8.668323471328762</v>
       </c>
       <c r="D20">
-        <v>5.314270321836755</v>
+        <v>5.382791957537362</v>
       </c>
       <c r="F20">
-        <v>25.04430590883477</v>
+        <v>20.10568982638403</v>
       </c>
       <c r="G20">
-        <v>30.09228348136837</v>
+        <v>25.65065586569927</v>
       </c>
       <c r="H20">
-        <v>14.50468866691662</v>
+        <v>9.054852130791016</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.05585698491777</v>
+        <v>14.21716031545403</v>
       </c>
       <c r="N20">
-        <v>18.13614661626411</v>
+        <v>11.32812673500226</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.45545014856644</v>
+        <v>17.36735959973381</v>
       </c>
       <c r="C21">
-        <v>5.958050479126468</v>
+        <v>9.121379503634875</v>
       </c>
       <c r="D21">
-        <v>5.378152924799898</v>
+        <v>5.552158589345823</v>
       </c>
       <c r="F21">
-        <v>25.0528889884088</v>
+        <v>20.69327619385518</v>
       </c>
       <c r="G21">
-        <v>30.10157335933006</v>
+        <v>26.4473738463182</v>
       </c>
       <c r="H21">
-        <v>14.45452476095502</v>
+        <v>9.03832050624348</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.32429649211457</v>
+        <v>15.03862073239566</v>
       </c>
       <c r="N21">
-        <v>18.06144400661459</v>
+        <v>11.04683937970061</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.69549379506296</v>
+        <v>18.00293281457754</v>
       </c>
       <c r="C22">
-        <v>6.094926371056935</v>
+        <v>9.406983726384786</v>
       </c>
       <c r="D22">
-        <v>5.41914449401164</v>
+        <v>5.659942551499462</v>
       </c>
       <c r="F22">
-        <v>25.06501215215657</v>
+        <v>21.09307445896588</v>
       </c>
       <c r="G22">
-        <v>30.11742646337605</v>
+        <v>26.9965384739926</v>
       </c>
       <c r="H22">
-        <v>14.42406763782387</v>
+        <v>9.036277559159966</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.49730318054122</v>
+        <v>15.55481907964787</v>
       </c>
       <c r="N22">
-        <v>18.01419664085056</v>
+        <v>10.86458883598945</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.56787029279072</v>
+        <v>17.66613695711309</v>
       </c>
       <c r="C23">
-        <v>6.022330249603573</v>
+        <v>9.255510416221204</v>
       </c>
       <c r="D23">
-        <v>5.397337847712545</v>
+        <v>5.602687694402989</v>
       </c>
       <c r="F23">
-        <v>25.05794607972517</v>
+        <v>20.87825740740129</v>
       </c>
       <c r="G23">
-        <v>30.10806963738905</v>
+        <v>26.70083375590892</v>
       </c>
       <c r="H23">
-        <v>14.44010992082629</v>
+        <v>9.036534772916623</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.40520765210402</v>
+        <v>15.28119499697942</v>
       </c>
       <c r="N23">
-        <v>18.03926973750997</v>
+        <v>10.9617260703347</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.07413821441554</v>
+        <v>16.33702393451944</v>
       </c>
       <c r="C24">
-        <v>5.737457715936596</v>
+        <v>8.660741256304719</v>
       </c>
       <c r="D24">
-        <v>5.313213789151492</v>
+        <v>5.379975966944704</v>
       </c>
       <c r="F24">
-        <v>25.04427561743825</v>
+        <v>20.09635375345754</v>
       </c>
       <c r="G24">
-        <v>30.09229655941288</v>
+        <v>25.638113931576</v>
       </c>
       <c r="H24">
-        <v>14.50554781248985</v>
+        <v>9.055263297977886</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.05143267880082</v>
+        <v>14.2033826868694</v>
       </c>
       <c r="N24">
-        <v>18.13739427489712</v>
+        <v>11.33275360902541</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.52241050156984</v>
+        <v>14.78677692355358</v>
       </c>
       <c r="C25">
-        <v>5.409800800963635</v>
+        <v>7.974190565524629</v>
       </c>
       <c r="D25">
-        <v>5.219402208076817</v>
+        <v>5.127887420217247</v>
       </c>
       <c r="F25">
-        <v>25.05749158450314</v>
+        <v>19.32123406446813</v>
       </c>
       <c r="G25">
-        <v>30.11714798128327</v>
+        <v>24.61351244277122</v>
       </c>
       <c r="H25">
-        <v>14.58610183418904</v>
+        <v>9.109984924853302</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.661380635107554</v>
+        <v>12.95109504683152</v>
       </c>
       <c r="N25">
-        <v>18.2500421043622</v>
+        <v>11.74091707976802</v>
       </c>
       <c r="O25">
         <v>0</v>
